--- a/FME_files/LOOKUP_TABLES/UpdateCycleAttributeMapper.xlsx
+++ b/FME_files/LOOKUP_TABLES/UpdateCycleAttributeMapper.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>original_value</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>RI_544</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
   </si>
 </sst>
 </file>
@@ -470,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,113 +579,155 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>42</v>
       </c>
     </row>

--- a/FME_files/LOOKUP_TABLES/UpdateCycleAttributeMapper.xlsx
+++ b/FME_files/LOOKUP_TABLES/UpdateCycleAttributeMapper.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LOOKUP_TABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>original_value</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>RI_544</t>
+  </si>
+  <si>
+    <t>None planned</t>
+  </si>
+  <si>
+    <t>Continually</t>
+  </si>
+  <si>
+    <t>As needed</t>
   </si>
   <si>
     <t>Annually</t>
@@ -479,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -509,184 +518,184 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,33 +714,78 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A1:D34">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>